--- a/Code/Results/Cases/Case_3_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_225/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.038678344208165</v>
+        <v>0.4303915378680472</v>
       </c>
       <c r="C2">
-        <v>0.1495049701577358</v>
+        <v>0.04382327218806381</v>
       </c>
       <c r="D2">
-        <v>0.3529217001708957</v>
+        <v>0.2774905871002744</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.908865349639882</v>
+        <v>1.582889080602584</v>
       </c>
       <c r="G2">
-        <v>0.0008153065330013516</v>
+        <v>0.002470908429547307</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.431870575898472</v>
+        <v>0.3507128815763565</v>
       </c>
       <c r="K2">
-        <v>1.092822023366949</v>
+        <v>0.3972748393527752</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.890192560684369</v>
+        <v>3.69510745402863</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9020270411424178</v>
+        <v>0.3904979307735346</v>
       </c>
       <c r="C3">
-        <v>0.1330979923646254</v>
+        <v>0.03851467051987356</v>
       </c>
       <c r="D3">
-        <v>0.3093431971656599</v>
+        <v>0.266707547815983</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8721845562645427</v>
+        <v>1.58536303286801</v>
       </c>
       <c r="G3">
-        <v>0.0008194684181518195</v>
+        <v>0.002473572851304841</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3816062624324985</v>
+        <v>0.3394726189720245</v>
       </c>
       <c r="K3">
-        <v>0.9506362872007514</v>
+        <v>0.3547135306349105</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.871703816258332</v>
+        <v>3.718957360956409</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8183705089175533</v>
+        <v>0.3660766694497397</v>
       </c>
       <c r="C4">
-        <v>0.1230197237877633</v>
+        <v>0.0352395364321012</v>
       </c>
       <c r="D4">
-        <v>0.2828257579386246</v>
+        <v>0.2602052215266326</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8514691827688949</v>
+        <v>1.587771657943016</v>
       </c>
       <c r="G4">
-        <v>0.0008221049820517875</v>
+        <v>0.002475295733736321</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3512766482008089</v>
+        <v>0.3327769460786101</v>
       </c>
       <c r="K4">
-        <v>0.8634959148387509</v>
+        <v>0.3285974827209941</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.864657980878633</v>
+        <v>3.735687377764336</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7843273943510098</v>
+        <v>0.3561438333010472</v>
       </c>
       <c r="C5">
-        <v>0.1189102627905498</v>
+        <v>0.03390103695186042</v>
       </c>
       <c r="D5">
-        <v>0.2720734691792757</v>
+        <v>0.2575853901618359</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8434581109259582</v>
+        <v>1.58897683364367</v>
       </c>
       <c r="G5">
-        <v>0.0008232002288734737</v>
+        <v>0.002476019743942404</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3390387250398277</v>
+        <v>0.3301001377858768</v>
       </c>
       <c r="K5">
-        <v>0.828011797423045</v>
+        <v>0.3179597534052903</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.862819355130881</v>
+        <v>3.743029245639747</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7786770221931079</v>
+        <v>0.3544956580888652</v>
       </c>
       <c r="C6">
-        <v>0.1182277008319801</v>
+        <v>0.03367854947215676</v>
       </c>
       <c r="D6">
-        <v>0.2702911236480219</v>
+        <v>0.2571521797890028</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8421532165997831</v>
+        <v>1.589190457874452</v>
       </c>
       <c r="G6">
-        <v>0.0008233833634388454</v>
+        <v>0.002476141291214983</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3370136258779439</v>
+        <v>0.3296587791670191</v>
       </c>
       <c r="K6">
-        <v>0.8221208678978655</v>
+        <v>0.316193671236249</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.862575000280671</v>
+        <v>3.74428001155178</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8179112176719627</v>
+        <v>0.3659426340137202</v>
       </c>
       <c r="C7">
-        <v>0.1229643139984233</v>
+        <v>0.03522150047196249</v>
       </c>
       <c r="D7">
-        <v>0.282680539439383</v>
+        <v>0.2601697682616475</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8513594295578528</v>
+        <v>1.587787005928043</v>
       </c>
       <c r="G7">
-        <v>0.0008221196680664115</v>
+        <v>0.00247530540908857</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3511111265993492</v>
+        <v>0.3327406362942469</v>
       </c>
       <c r="K7">
-        <v>0.8630172756884917</v>
+        <v>0.3284539985207005</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.864629068019184</v>
+        <v>3.735784270514472</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9915003302587593</v>
+        <v>0.4166212532286409</v>
       </c>
       <c r="C8">
-        <v>0.1438478629797544</v>
+        <v>0.04199615373907761</v>
       </c>
       <c r="D8">
-        <v>0.3378419624120994</v>
+        <v>0.2737480681930151</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8958281321902533</v>
+        <v>1.583557422560631</v>
       </c>
       <c r="G8">
-        <v>0.0008167249676829389</v>
+        <v>0.002471809122196536</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4144211742211468</v>
+        <v>0.3467944768161431</v>
       </c>
       <c r="K8">
-        <v>1.043753654100925</v>
+        <v>0.3825965392031208</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.882892778044322</v>
+        <v>3.702897746263403</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.334601716414994</v>
+        <v>0.5165677555208674</v>
       </c>
       <c r="C9">
-        <v>0.1848363033217879</v>
+        <v>0.0551545514991858</v>
       </c>
       <c r="D9">
-        <v>0.4482367433517709</v>
+        <v>0.301311662641325</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9985072348244159</v>
+        <v>1.582326316437289</v>
       </c>
       <c r="G9">
-        <v>0.000806769719329475</v>
+        <v>0.002465639555038971</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5433991865754422</v>
+        <v>0.375991410857381</v>
       </c>
       <c r="K9">
-        <v>1.400181856646839</v>
+        <v>0.4888839106023681</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.955284862098296</v>
+        <v>3.654975425647706</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.589425966144802</v>
+        <v>0.5903270041803523</v>
       </c>
       <c r="C10">
-        <v>0.2150807622164734</v>
+        <v>0.0647421791991718</v>
       </c>
       <c r="D10">
-        <v>0.5311813598340507</v>
+        <v>0.322131055108656</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.085078145128335</v>
+        <v>1.58573649977383</v>
       </c>
       <c r="G10">
-        <v>0.0007998059606397984</v>
+        <v>0.0024615211511131</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6420017418502653</v>
+        <v>0.3984484545795652</v>
       </c>
       <c r="K10">
-        <v>1.664366827507763</v>
+        <v>0.5670251207922661</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.034346522416712</v>
+        <v>3.629892136702722</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.706216405104556</v>
+        <v>0.623950364150943</v>
       </c>
       <c r="C11">
-        <v>0.2288946390780922</v>
+        <v>0.06908601186584917</v>
       </c>
       <c r="D11">
-        <v>0.5694303150576161</v>
+        <v>0.3317253763217991</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.127287103133682</v>
+        <v>1.588226854490443</v>
       </c>
       <c r="G11">
-        <v>0.0007967069593692866</v>
+        <v>0.002459736663038641</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.687910388764692</v>
+        <v>0.4088850513699072</v>
       </c>
       <c r="K11">
-        <v>1.785320420672235</v>
+        <v>0.6025816436512343</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.076792003534166</v>
+        <v>3.620685292605629</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.750590710916754</v>
+        <v>0.6366922914097017</v>
       </c>
       <c r="C12">
-        <v>0.2341359529093978</v>
+        <v>0.07072831240029132</v>
       </c>
       <c r="D12">
-        <v>0.5839989194719237</v>
+        <v>0.3353761660865757</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.143713987702455</v>
+        <v>1.589305042919477</v>
       </c>
       <c r="G12">
-        <v>0.0007955427241796665</v>
+        <v>0.002459073653194891</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7054659383737345</v>
+        <v>0.4128689563800094</v>
       </c>
       <c r="K12">
-        <v>1.831257395736714</v>
+        <v>0.6160469253196368</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.093874694034753</v>
+        <v>3.617516208844762</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.741026923957094</v>
+        <v>0.6339476762161098</v>
       </c>
       <c r="C13">
-        <v>0.2330066450940365</v>
+        <v>0.07037473114689874</v>
       </c>
       <c r="D13">
-        <v>0.5808573779285382</v>
+        <v>0.3345891211753553</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.140155834279696</v>
+        <v>1.589066823359303</v>
       </c>
       <c r="G13">
-        <v>0.0007957930601313958</v>
+        <v>0.002459215878744256</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7016771078797177</v>
+        <v>0.4120095364683038</v>
       </c>
       <c r="K13">
-        <v>1.821357677119352</v>
+        <v>0.6131469099392177</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.090149429567361</v>
+        <v>3.618184606208445</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.709863993854668</v>
+        <v>0.6249984631796224</v>
       </c>
       <c r="C14">
-        <v>0.2293256247294408</v>
+        <v>0.06922117777699555</v>
       </c>
       <c r="D14">
-        <v>0.5706271269194474</v>
+        <v>0.3320253764176186</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.128629448528415</v>
+        <v>1.588312848553542</v>
       </c>
       <c r="G14">
-        <v>0.0007966109945540915</v>
+        <v>0.002459681861710669</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.689351151641759</v>
+        <v>0.409212172209692</v>
       </c>
       <c r="K14">
-        <v>1.789096849062531</v>
+        <v>0.6036894278825002</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.07817670771442</v>
+        <v>3.620418207392646</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.690795834782307</v>
+        <v>0.6195180311113972</v>
       </c>
       <c r="C15">
-        <v>0.2270723068464378</v>
+        <v>0.06851425016920132</v>
       </c>
       <c r="D15">
-        <v>0.5643721312023047</v>
+        <v>0.3304573007184217</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.121628069474141</v>
+        <v>1.587868620407534</v>
       </c>
       <c r="G15">
-        <v>0.0007971131938981314</v>
+        <v>0.002459968946886615</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6818240121765342</v>
+        <v>0.407502847461501</v>
       </c>
       <c r="K15">
-        <v>1.769354390995687</v>
+        <v>0.5978965333607107</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.070976948434691</v>
+        <v>3.621827694469744</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.581812880439429</v>
+        <v>0.5881309971373696</v>
       </c>
       <c r="C16">
-        <v>0.214179303325011</v>
+        <v>0.06445793797153954</v>
       </c>
       <c r="D16">
-        <v>0.5286929588372971</v>
+        <v>0.3215065174245808</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.082379656496713</v>
+        <v>1.585592654772853</v>
       </c>
       <c r="G16">
-        <v>0.0008000098217971969</v>
+        <v>0.002461639557280065</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6390243323719176</v>
+        <v>0.3977708448564954</v>
       </c>
       <c r="K16">
-        <v>1.65647974280796</v>
+        <v>0.5647015624556957</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.03170950776456</v>
+        <v>3.63053820869203</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.515194060053375</v>
+        <v>0.5688935726000466</v>
       </c>
       <c r="C17">
-        <v>0.2062856668415378</v>
+        <v>0.06196495002636482</v>
       </c>
       <c r="D17">
-        <v>0.506944377749619</v>
+        <v>0.3160470362657009</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.059051408826548</v>
+        <v>1.584437015088582</v>
       </c>
       <c r="G17">
-        <v>0.0008018040213980524</v>
+        <v>0.002462687173262449</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6130513427668092</v>
+        <v>0.3918571544514435</v>
       </c>
       <c r="K17">
-        <v>1.587449023448301</v>
+        <v>0.5443395808058256</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.009333272461049</v>
+        <v>3.636446569440977</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.476957028904138</v>
+        <v>0.5578353282814703</v>
       </c>
       <c r="C18">
-        <v>0.2017505314557582</v>
+        <v>0.06052939486605169</v>
       </c>
       <c r="D18">
-        <v>0.4944831774135139</v>
+        <v>0.3129185167450146</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.045897387283588</v>
+        <v>1.583860702427629</v>
       </c>
       <c r="G18">
-        <v>0.0008028425169659958</v>
+        <v>0.002463298114566803</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5982103077840719</v>
+        <v>0.3884765338542593</v>
       </c>
       <c r="K18">
-        <v>1.547815789690816</v>
+        <v>0.5326288553893335</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.997067977972023</v>
+        <v>3.640052294399311</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.464023749334416</v>
+        <v>0.5540923498073198</v>
       </c>
       <c r="C19">
-        <v>0.2002158170346036</v>
+        <v>0.06004305884940209</v>
       </c>
       <c r="D19">
-        <v>0.4902719765937604</v>
+        <v>0.3118612550687203</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.041487892608302</v>
+        <v>1.583680748936388</v>
       </c>
       <c r="G19">
-        <v>0.0008031952712778517</v>
+        <v>0.002463506409850791</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.593201644315684</v>
+        <v>0.3873354810172316</v>
       </c>
       <c r="K19">
-        <v>1.534408249189198</v>
+        <v>0.5286639859963884</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.993016786536032</v>
+        <v>3.641308736608323</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.522277268527091</v>
+        <v>0.5709407488968168</v>
       </c>
       <c r="C20">
-        <v>0.2071254165024072</v>
+        <v>0.06223050465840174</v>
       </c>
       <c r="D20">
-        <v>0.5092545112886171</v>
+        <v>0.3166270046525028</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.061507184814261</v>
+        <v>1.584550887020399</v>
       </c>
       <c r="G20">
-        <v>0.0008016123554043797</v>
+        <v>0.002462574785953131</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.615805939753642</v>
+        <v>0.3924845261497438</v>
       </c>
       <c r="K20">
-        <v>1.594789909354631</v>
+        <v>0.5465070547406583</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.011652109955691</v>
+        <v>3.635796146680008</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.719013082276319</v>
+        <v>0.6276268108745739</v>
       </c>
       <c r="C21">
-        <v>0.2304065306678922</v>
+        <v>0.0695600759572983</v>
       </c>
       <c r="D21">
-        <v>0.5736296194125146</v>
+        <v>0.3327779329765974</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.132002690388532</v>
+        <v>1.588530640542317</v>
       </c>
       <c r="G21">
-        <v>0.000796370500363534</v>
+        <v>0.002459544646065993</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6929667818979084</v>
+        <v>0.4100329627090673</v>
       </c>
       <c r="K21">
-        <v>1.798568793081472</v>
+        <v>0.6064673026850187</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.08166533875405</v>
+        <v>3.619753528149033</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.848467899865028</v>
+        <v>0.6647294887715418</v>
       </c>
       <c r="C22">
-        <v>0.2456833380708616</v>
+        <v>0.07433509791410131</v>
       </c>
       <c r="D22">
-        <v>0.6162006650610863</v>
+        <v>0.3434361921884488</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.1806784564792</v>
+        <v>1.5919194204333</v>
       </c>
       <c r="G22">
-        <v>0.0007929984744272078</v>
+        <v>0.002457638489210487</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7444024152437407</v>
+        <v>0.4216872111009025</v>
       </c>
       <c r="K22">
-        <v>1.932546018163237</v>
+        <v>0.6456591690889866</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.133347810960203</v>
+        <v>3.611118713071221</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.77928703605437</v>
+        <v>0.6449222383162407</v>
       </c>
       <c r="C23">
-        <v>0.237523394131756</v>
+        <v>0.07178800284142994</v>
       </c>
       <c r="D23">
-        <v>0.5934305227482071</v>
+        <v>0.3377383240594725</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.154448224756379</v>
+        <v>1.590038646039204</v>
       </c>
       <c r="G23">
-        <v>0.000794793476233102</v>
+        <v>0.002458649070110286</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7168513132139651</v>
+        <v>0.4154501467889986</v>
       </c>
       <c r="K23">
-        <v>1.860958883376782</v>
+        <v>0.6247415277477728</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.105194476848766</v>
+        <v>3.615557851600585</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.519074755430211</v>
+        <v>0.5700152154448972</v>
       </c>
       <c r="C24">
-        <v>0.206745756442686</v>
+        <v>0.06211045457631315</v>
       </c>
       <c r="D24">
-        <v>0.5082099687709558</v>
+        <v>0.3163647691365838</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.06039612855524</v>
+        <v>1.58449913116084</v>
       </c>
       <c r="G24">
-        <v>0.0008016989858072208</v>
+        <v>0.00246262556931872</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.614560303889462</v>
+        <v>0.3922008314850416</v>
       </c>
       <c r="K24">
-        <v>1.591470930085961</v>
+        <v>0.5455271532838992</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.010601903259357</v>
+        <v>3.636089552028579</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.241386075814489</v>
+        <v>0.4894707067339539</v>
       </c>
       <c r="C25">
-        <v>0.1737333500297069</v>
+        <v>0.05160869157478487</v>
       </c>
       <c r="D25">
-        <v>0.4180862958124862</v>
+        <v>0.2937549765996437</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9689049229465496</v>
+        <v>1.581902297716525</v>
       </c>
       <c r="G25">
-        <v>0.0008093990786014018</v>
+        <v>0.002467235514459021</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5079015281365713</v>
+        <v>0.3679167592233483</v>
       </c>
       <c r="K25">
-        <v>1.303435865825293</v>
+        <v>0.4601199913982725</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.931431026703791</v>
+        <v>3.666163385015665</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_225/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_225/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4303915378680472</v>
+        <v>1.038678344208279</v>
       </c>
       <c r="C2">
-        <v>0.04382327218806381</v>
+        <v>0.1495049701574089</v>
       </c>
       <c r="D2">
-        <v>0.2774905871002744</v>
+        <v>0.3529217001710379</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.582889080602584</v>
+        <v>0.9088653496398678</v>
       </c>
       <c r="G2">
-        <v>0.002470908429547307</v>
+        <v>0.0008153065329807392</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3507128815763565</v>
+        <v>0.4318705758985999</v>
       </c>
       <c r="K2">
-        <v>0.3972748393527752</v>
+        <v>1.092822023366978</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.69510745402863</v>
+        <v>1.890192560684312</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3904979307735346</v>
+        <v>0.9020270411425599</v>
       </c>
       <c r="C3">
-        <v>0.03851467051987356</v>
+        <v>0.1330979923646396</v>
       </c>
       <c r="D3">
-        <v>0.266707547815983</v>
+        <v>0.3093431971655463</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.58536303286801</v>
+        <v>0.8721845562645214</v>
       </c>
       <c r="G3">
-        <v>0.002473572851304841</v>
+        <v>0.0008194684181671703</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3394726189720245</v>
+        <v>0.3816062624324985</v>
       </c>
       <c r="K3">
-        <v>0.3547135306349105</v>
+        <v>0.950636287200723</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.718957360956409</v>
+        <v>1.871703816258275</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3660766694497397</v>
+        <v>0.8183705089175817</v>
       </c>
       <c r="C4">
-        <v>0.0352395364321012</v>
+        <v>0.1230197237876069</v>
       </c>
       <c r="D4">
-        <v>0.2602052215266326</v>
+        <v>0.2828257579388946</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.587771657943016</v>
+        <v>0.8514691827688807</v>
       </c>
       <c r="G4">
-        <v>0.002475295733736321</v>
+        <v>0.0008221049820523028</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3327769460786101</v>
+        <v>0.3512766482007379</v>
       </c>
       <c r="K4">
-        <v>0.3285974827209941</v>
+        <v>0.863495914838694</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.735687377764336</v>
+        <v>1.864657980878562</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3561438333010472</v>
+        <v>0.7843273943510383</v>
       </c>
       <c r="C5">
-        <v>0.03390103695186042</v>
+        <v>0.1189102627904788</v>
       </c>
       <c r="D5">
-        <v>0.2575853901618359</v>
+        <v>0.2720734691791478</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.58897683364367</v>
+        <v>0.8434581109259582</v>
       </c>
       <c r="G5">
-        <v>0.002476019743942404</v>
+        <v>0.000823200228793396</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3301001377858768</v>
+        <v>0.3390387250397424</v>
       </c>
       <c r="K5">
-        <v>0.3179597534052903</v>
+        <v>0.8280117974231018</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.743029245639747</v>
+        <v>1.862819355130895</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3544956580888652</v>
+        <v>0.7786770221929373</v>
       </c>
       <c r="C6">
-        <v>0.03367854947215676</v>
+        <v>0.1182277008319943</v>
       </c>
       <c r="D6">
-        <v>0.2571521797890028</v>
+        <v>0.2702911236480503</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.589190457874452</v>
+        <v>0.8421532165998045</v>
       </c>
       <c r="G6">
-        <v>0.002476141291214983</v>
+        <v>0.0008233833635177741</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3296587791670191</v>
+        <v>0.3370136258779155</v>
       </c>
       <c r="K6">
-        <v>0.316193671236249</v>
+        <v>0.8221208678978655</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.74428001155178</v>
+        <v>1.862575000280657</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3659426340137202</v>
+        <v>0.8179112176720764</v>
       </c>
       <c r="C7">
-        <v>0.03522150047196249</v>
+        <v>0.1229643139988923</v>
       </c>
       <c r="D7">
-        <v>0.2601697682616475</v>
+        <v>0.2826805394392409</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.587787005928043</v>
+        <v>0.8513594295578599</v>
       </c>
       <c r="G7">
-        <v>0.00247530540908857</v>
+        <v>0.0008221196680670128</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3327406362942469</v>
+        <v>0.3511111265994487</v>
       </c>
       <c r="K7">
-        <v>0.3284539985207005</v>
+        <v>0.8630172756883212</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.735784270514472</v>
+        <v>1.864629068019084</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4166212532286409</v>
+        <v>0.9915003302588445</v>
       </c>
       <c r="C8">
-        <v>0.04199615373907761</v>
+        <v>0.1438478629796691</v>
       </c>
       <c r="D8">
-        <v>0.2737480681930151</v>
+        <v>0.3378419624120426</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.583557422560631</v>
+        <v>0.8958281321902462</v>
       </c>
       <c r="G8">
-        <v>0.002471809122196536</v>
+        <v>0.0008167249677424532</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3467944768161431</v>
+        <v>0.4144211742212178</v>
       </c>
       <c r="K8">
-        <v>0.3825965392031208</v>
+        <v>1.043753654100868</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.702897746263403</v>
+        <v>1.882892778044379</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5165677555208674</v>
+        <v>1.334601716415108</v>
       </c>
       <c r="C9">
-        <v>0.0551545514991858</v>
+        <v>0.1848363033220295</v>
       </c>
       <c r="D9">
-        <v>0.301311662641325</v>
+        <v>0.4482367433518561</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.582326316437289</v>
+        <v>0.9985072348244159</v>
       </c>
       <c r="G9">
-        <v>0.002465639555038971</v>
+        <v>0.0008067697193528058</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.375991410857381</v>
+        <v>0.5433991865754848</v>
       </c>
       <c r="K9">
-        <v>0.4888839106023681</v>
+        <v>1.400181856646753</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.654975425647706</v>
+        <v>1.95528486209821</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5903270041803523</v>
+        <v>1.58942596614466</v>
       </c>
       <c r="C10">
-        <v>0.0647421791991718</v>
+        <v>0.2150807622162318</v>
       </c>
       <c r="D10">
-        <v>0.322131055108656</v>
+        <v>0.5311813598339654</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.58573649977383</v>
+        <v>1.085078145128321</v>
       </c>
       <c r="G10">
-        <v>0.0024615211511131</v>
+        <v>0.0007998059606675978</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3984484545795652</v>
+        <v>0.6420017418503505</v>
       </c>
       <c r="K10">
-        <v>0.5670251207922661</v>
+        <v>1.664366827507706</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.629892136702722</v>
+        <v>2.034346522416683</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.623950364150943</v>
+        <v>1.706216405104698</v>
       </c>
       <c r="C11">
-        <v>0.06908601186584917</v>
+        <v>0.228894639078348</v>
       </c>
       <c r="D11">
-        <v>0.3317253763217991</v>
+        <v>0.5694303150575308</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.588226854490443</v>
+        <v>1.127287103133668</v>
       </c>
       <c r="G11">
-        <v>0.002459736663038641</v>
+        <v>0.0007967069594252092</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4088850513699072</v>
+        <v>0.6879103887646778</v>
       </c>
       <c r="K11">
-        <v>0.6025816436512343</v>
+        <v>1.785320420672235</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.620685292605629</v>
+        <v>2.076792003534138</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6366922914097017</v>
+        <v>1.750590710916669</v>
       </c>
       <c r="C12">
-        <v>0.07072831240029132</v>
+        <v>0.2341359529095257</v>
       </c>
       <c r="D12">
-        <v>0.3353761660865757</v>
+        <v>0.5839989194716964</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.589305042919477</v>
+        <v>1.143713987702441</v>
       </c>
       <c r="G12">
-        <v>0.002459073653194891</v>
+        <v>0.000795542724179851</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4128689563800094</v>
+        <v>0.7054659383737487</v>
       </c>
       <c r="K12">
-        <v>0.6160469253196368</v>
+        <v>1.831257395736799</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.617516208844762</v>
+        <v>2.093874694034668</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6339476762161098</v>
+        <v>1.741026923957321</v>
       </c>
       <c r="C13">
-        <v>0.07037473114689874</v>
+        <v>0.2330066450936812</v>
       </c>
       <c r="D13">
-        <v>0.3345891211753553</v>
+        <v>0.5808573779286235</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.589066823359303</v>
+        <v>1.140155834279682</v>
       </c>
       <c r="G13">
-        <v>0.002459215878744256</v>
+        <v>0.0007957930601301041</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4120095364683038</v>
+        <v>0.7016771078797888</v>
       </c>
       <c r="K13">
-        <v>0.6131469099392177</v>
+        <v>1.821357677119238</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.618184606208445</v>
+        <v>2.09014942956739</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6249984631796224</v>
+        <v>1.709863993854697</v>
       </c>
       <c r="C14">
-        <v>0.06922117777699555</v>
+        <v>0.2293256247293272</v>
       </c>
       <c r="D14">
-        <v>0.3320253764176186</v>
+        <v>0.5706271269195042</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.588312848553542</v>
+        <v>1.128629448528415</v>
       </c>
       <c r="G14">
-        <v>0.002459681861710669</v>
+        <v>0.00079661099455304</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.409212172209692</v>
+        <v>0.6893511516418727</v>
       </c>
       <c r="K14">
-        <v>0.6036894278825002</v>
+        <v>1.789096849062531</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.620418207392646</v>
+        <v>2.07817670771442</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6195180311113972</v>
+        <v>1.690795834782307</v>
       </c>
       <c r="C15">
-        <v>0.06851425016920132</v>
+        <v>0.227072306845983</v>
       </c>
       <c r="D15">
-        <v>0.3304573007184217</v>
+        <v>0.5643721312023615</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.587868620407534</v>
+        <v>1.121628069474156</v>
       </c>
       <c r="G15">
-        <v>0.002459968946886615</v>
+        <v>0.0007971131938984652</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.407502847461501</v>
+        <v>0.6818240121764632</v>
       </c>
       <c r="K15">
-        <v>0.5978965333607107</v>
+        <v>1.769354390995602</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.621827694469744</v>
+        <v>2.070976948434549</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5881309971373696</v>
+        <v>1.581812880439401</v>
       </c>
       <c r="C16">
-        <v>0.06445793797153954</v>
+        <v>0.2141793033250963</v>
       </c>
       <c r="D16">
-        <v>0.3215065174245808</v>
+        <v>0.5286929588371549</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.585592654772853</v>
+        <v>1.082379656496727</v>
       </c>
       <c r="G16">
-        <v>0.002461639557280065</v>
+        <v>0.0008000098218229541</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3977708448564954</v>
+        <v>0.6390243323719602</v>
       </c>
       <c r="K16">
-        <v>0.5647015624556957</v>
+        <v>1.656479742808017</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.63053820869203</v>
+        <v>2.031709507764646</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5688935726000466</v>
+        <v>1.51519406005346</v>
       </c>
       <c r="C17">
-        <v>0.06196495002636482</v>
+        <v>0.2062856668417794</v>
       </c>
       <c r="D17">
-        <v>0.3160470362657009</v>
+        <v>0.5069443777493348</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.584437015088582</v>
+        <v>1.059051408826562</v>
       </c>
       <c r="G17">
-        <v>0.002462687173262449</v>
+        <v>0.0008018040215073869</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3918571544514435</v>
+        <v>0.613051342766866</v>
       </c>
       <c r="K17">
-        <v>0.5443395808058256</v>
+        <v>1.587449023448443</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.636446569440977</v>
+        <v>2.009333272461163</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5578353282814703</v>
+        <v>1.476957028903968</v>
       </c>
       <c r="C18">
-        <v>0.06052939486605169</v>
+        <v>0.2017505314555166</v>
       </c>
       <c r="D18">
-        <v>0.3129185167450146</v>
+        <v>0.494483177413457</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.583860702427629</v>
+        <v>1.045897387283603</v>
       </c>
       <c r="G18">
-        <v>0.002463298114566803</v>
+        <v>0.0008028425169359524</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3884765338542593</v>
+        <v>0.5982103077841003</v>
       </c>
       <c r="K18">
-        <v>0.5326288553893335</v>
+        <v>1.547815789690759</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.640052294399311</v>
+        <v>1.997067977972023</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5540923498073198</v>
+        <v>1.464023749334388</v>
       </c>
       <c r="C19">
-        <v>0.06004305884940209</v>
+        <v>0.2002158170348309</v>
       </c>
       <c r="D19">
-        <v>0.3118612550687203</v>
+        <v>0.4902719765938457</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.583680748936388</v>
+        <v>1.041487892608302</v>
       </c>
       <c r="G19">
-        <v>0.002463506409850791</v>
+        <v>0.0008031952712512265</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3873354810172316</v>
+        <v>0.5932016443157551</v>
       </c>
       <c r="K19">
-        <v>0.5286639859963884</v>
+        <v>1.534408249189227</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.641308736608323</v>
+        <v>1.99301678653606</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5709407488968168</v>
+        <v>1.522277268527233</v>
       </c>
       <c r="C20">
-        <v>0.06223050465840174</v>
+        <v>0.2071254165025067</v>
       </c>
       <c r="D20">
-        <v>0.3166270046525028</v>
+        <v>0.5092545112889297</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.584550887020399</v>
+        <v>1.061507184814232</v>
       </c>
       <c r="G20">
-        <v>0.002462574785953131</v>
+        <v>0.0008016123554050231</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3924845261497438</v>
+        <v>0.6158059397536562</v>
       </c>
       <c r="K20">
-        <v>0.5465070547406583</v>
+        <v>1.594789909354574</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.635796146680008</v>
+        <v>2.011652109955605</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6276268108745739</v>
+        <v>1.719013082276263</v>
       </c>
       <c r="C21">
-        <v>0.0695600759572983</v>
+        <v>0.2304065306675369</v>
       </c>
       <c r="D21">
-        <v>0.3327779329765974</v>
+        <v>0.5736296194123724</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.588530640542317</v>
+        <v>1.132002690388532</v>
       </c>
       <c r="G21">
-        <v>0.002459544646065993</v>
+        <v>0.0007963705003656752</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4100329627090673</v>
+        <v>0.6929667818978942</v>
       </c>
       <c r="K21">
-        <v>0.6064673026850187</v>
+        <v>1.798568793081444</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.619753528149033</v>
+        <v>2.08166533875405</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6647294887715418</v>
+        <v>1.84846789986517</v>
       </c>
       <c r="C22">
-        <v>0.07433509791410131</v>
+        <v>0.2456833380717711</v>
       </c>
       <c r="D22">
-        <v>0.3434361921884488</v>
+        <v>0.6162006650610863</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.5919194204333</v>
+        <v>1.180678456479185</v>
       </c>
       <c r="G22">
-        <v>0.002457638489210487</v>
+        <v>0.0007929984744544682</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4216872111009025</v>
+        <v>0.7444024152436839</v>
       </c>
       <c r="K22">
-        <v>0.6456591690889866</v>
+        <v>1.932546018163237</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.611118713071221</v>
+        <v>2.133347810960174</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6449222383162407</v>
+        <v>1.779287036054427</v>
       </c>
       <c r="C23">
-        <v>0.07178800284142994</v>
+        <v>0.2375233941316139</v>
       </c>
       <c r="D23">
-        <v>0.3377383240594725</v>
+        <v>0.5934305227482071</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.590038646039204</v>
+        <v>1.154448224756393</v>
       </c>
       <c r="G23">
-        <v>0.002458649070110286</v>
+        <v>0.0007947934762057469</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4154501467889986</v>
+        <v>0.7168513132139367</v>
       </c>
       <c r="K23">
-        <v>0.6247415277477728</v>
+        <v>1.860958883376583</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.615557851600585</v>
+        <v>2.105194476848709</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5700152154448972</v>
+        <v>1.519074755430097</v>
       </c>
       <c r="C24">
-        <v>0.06211045457631315</v>
+        <v>0.2067457564422313</v>
       </c>
       <c r="D24">
-        <v>0.3163647691365838</v>
+        <v>0.5082099687707853</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.58449913116084</v>
+        <v>1.06039612855524</v>
       </c>
       <c r="G24">
-        <v>0.00246262556931872</v>
+        <v>0.000801698985834324</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3922008314850416</v>
+        <v>0.6145603038893483</v>
       </c>
       <c r="K24">
-        <v>0.5455271532838992</v>
+        <v>1.591470930086075</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.636089552028579</v>
+        <v>2.010601903259413</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4894707067339539</v>
+        <v>1.241386075814461</v>
       </c>
       <c r="C25">
-        <v>0.05160869157478487</v>
+        <v>0.1737333500298632</v>
       </c>
       <c r="D25">
-        <v>0.2937549765996437</v>
+        <v>0.4180862958124578</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.581902297716525</v>
+        <v>0.9689049229465496</v>
       </c>
       <c r="G25">
-        <v>0.002467235514459021</v>
+        <v>0.0008093990786008788</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3679167592233483</v>
+        <v>0.5079015281365571</v>
       </c>
       <c r="K25">
-        <v>0.4601199913982725</v>
+        <v>1.303435865825207</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.666163385015665</v>
+        <v>1.931431026703763</v>
       </c>
     </row>
   </sheetData>
